--- a/doc/ue_meshstreaming.xlsx
+++ b/doc/ue_meshstreaming.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="开启条件" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>StaticMesh的LOD加载卸载</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,12 +37,39 @@
     <t>触发流程，在渲染层怎么表现？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>[StaticMeshLODSettings]</t>
+  </si>
+  <si>
+    <t>LevelArchitecture=(NumLODs=4,MaxNumStreamedLODs=0,bSupportLODStreaming=0,LightMapResolution=32,LODPercentTriangles=50,PixelError=12,SilhouetteImportance=4,Name=LOCTEXT("LevelArchitectureLOD","Level Architecture"))</t>
+  </si>
+  <si>
+    <t>SmallProp=(NumLODs=4,MaxNumStreamedLODs=0,bSupportLODStreaming=0,LODPercentTriangles=50,PixelError=10,Name=LOCTEXT("SmallPropLOD","Small Prop"))</t>
+  </si>
+  <si>
+    <t>LargeProp=(NumLODs=4,MaxNumStreamedLODs=0,bSupportLODStreaming=0,LODPercentTriangles=50,PixelError=10,Name=LOCTEXT("LargePropLOD","Large Prop"))</t>
+  </si>
+  <si>
+    <t>Deco=(NumLODs=4,MaxNumStreamedLODs=0,bSupportLODStreaming=0,LODPercentTriangles=50,PixelError=10,Name=LOCTEXT("DecoLOD","Deco"))</t>
+  </si>
+  <si>
+    <t>Vista=(NumLODs=1,MaxNumStreamedLODs=0,bSupportLODStreaming=0,Name=LOCTEXT("VistaLOD","Vista"))</t>
+  </si>
+  <si>
+    <t>Foliage=(NumLODs=1,MaxNumStreamedLODs=0,bSupportLODStreaming=0,Name=LOCTEXT("FoliageLOD","Foliage"))</t>
+  </si>
+  <si>
+    <t>HighDetail=(NumLODs=6,MaxNumStreamedLODs=0,bSupportLODStreaming=0,LODPercentTriangles=50,PixelError=6,Name=LOCTEXT("HighDetailLOD","High Detail"))</t>
+  </si>
+  <si>
+    <t>StreamingMesh=(NumLODs=4,MaxNumStreamedLODs=4,bSupportLODStreaming=1,LODPercentTriangles=50,PixelError=10,Name=LOCTEXT("StreamingMesh","Streaming Mesh"))</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +82,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -77,8 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -94,6 +130,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>113075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>37551</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="352425"/>
+          <a:ext cx="9800000" cy="4390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>113774</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="7667625"/>
+          <a:ext cx="4209524" cy="1704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -392,4 +509,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B32:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>